--- a/i_experments/files/items.xlsx
+++ b/i_experments/files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>items</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>columns</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
         </is>
       </c>
     </row>
@@ -449,14 +459,43 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ab42</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>["date", "user", "platform", "a"]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>ab40</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>["date", "user", "platform", "\u6d53\u5ea6", "\u6d53\u5ea6\u5355\u4f4d"]</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>["date", "user", "platform"]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
         </is>
       </c>
     </row>

--- a/i_experments/files/items.xlsx
+++ b/i_experments/files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>items</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>columns</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>columns</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
@@ -459,41 +454,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ab40</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ab42</t>
+          <t>["date", "user", "platform", "date", "user", "platform", "Beads_LOT", "Beads", "Beads_Conc.", "Beads_Unit", "Beads_Dilution", "Beads_Mfg.", "Beads_volume", "CA_LOT", "CA", "CA_Conc.", "CA_Unit", "CA_Weight", "CA_Dilution", "CA_Mfg.", "CA_volume", "before_Active_washing", "before_washing_buffer", "before_washing_times", "before_washing_protocolActive_formula", "Active_time", "coating_formula", "coating_time", "before_blocking_washing", "before_washing_buffer", "blocking_formula", "blocking_time", "after_Active_washing", "after_washing_buffer", "after_washing_times", "after_washing_protocol", "storage_buffer", "Ag_LOT", "Ag", "Ag_Conc.", "Ag_Unit", "Ag_Dilution", "Ag_Mfg.", "Ag_volume", "Ag_protocol", "DA_LOT", "DA", "DA_Conc.", "DA_Unit", "DA_Dilution", "DA_Mfg.", "DA_volume", "DA_protocol", "SBG_LOT", "SBG", "SBG_Conc.", "SBG_Unit", "SBG_Dilution", "SBG_Mfg.", "SBG_volume", "SBG_protocol", "Resuspension", "Resuspension_volume", "machine_LOT", "automatic.", "auto_washing", "date", "user", "platform", "Beads_LOT", "Beads", "Beads_Conc.", "Beads_Unit", "Beads_Dilution", "Beads_Mfg.", "Beads_volume", "CA_LOT", "CA", "CA_Conc.", "CA_Unit", "CA_Weight", "CA_Dilution", "CA_Mfg.", "CA_volume", "before_Active_washing", "before_washing_buffer", "before_washing_times", "before_washing_protocolActive_formula", "Active_time", "coating_formula", "coating_time", "before_blocking_washing", "before_washing_buffer", "blocking_formula", "blocking_time", "after_Active_washing", "after_washing_buffer", "after_washing_times", "after_washing_protocol", "storage_buffer", "Ag_LOT", "Ag", "Ag_Conc.", "Ag_Unit", "Ag_Dilution", "Ag_Mfg.", "Ag_volume", "Ag_protocol", "DA_LOT", "DA", "DA_Conc.", "DA_Unit", "DA_Dilution", "DA_Mfg.", "DA_volume", "DA_protocol", "SBG_LOT", "SBG", "SBG_Conc.", "SBG_Unit", "SBG_Dilution", "SBG_Mfg.", "SBG_volume", "SBG_protocol", "Resuspension", "Resuspension_volume", "machine_LOT", "automatic.", "auto_washing"]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>["date", "user", "platform", "a"]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ab40</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>["date", "user", "platform"]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>V1.0.1</t>
         </is>

--- a/i_experments/files/items.xlsx
+++ b/i_experments/files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +434,170 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>columns</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>columns</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>version</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ab40</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ab40</t>
+          <t>["input_beads", "CA", "Beads_Dilution", "Resuspension_volume", "Beads", "storage_buffer", "DA_Unit", "Active_time", "DA_Conc.", "AEB", "blocking_formula", "after_washing_buffer", "Ag", "CA_Dilution", "after_Active_washing", "DA_LOT", "DA_Dilution", "SBG_Conc.", "DA_Mfg.", "blocking_time", "Resuspension", "before_Active_washing", "before_washing_protocolActive_formula", "Ag_protocol", "date", "Ag_Conc.", "recycle", "Ag_LOT", "SBG_Mfg.", "Ag_Mfg.", "after_washing_protocol", "platform", "positive_beads", "CA_Weight", "positive_ratio", "SBG_Dilution", "Beads_Conc.", "machine_LOT", "auto_washing", "Ag_Dilution", "total_beads", "SBG_LOT", "before_washing_buffer", "CA_Mfg.", "DA", "Beads_LOT", "CA_volume", "coating_time", "Beads_Mfg.", "DA_volume", "DA_protocol", "CA_LOT", "SBG", "Beads_volume", "after_washing_times", "SBG_protocol", "CA_Unit", "Ag_volume", "before_washing_times", "before_blocking_washing", "automatic.", "coating_formula", "CA_Conc.", "Ag_Unit", "SBG_volume", "user", "SBG_Unit", "Beads_Unit"]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>["date", "user", "platform", "date", "user", "platform", "Beads_LOT", "Beads", "Beads_Conc.", "Beads_Unit", "Beads_Dilution", "Beads_Mfg.", "Beads_volume", "CA_LOT", "CA", "CA_Conc.", "CA_Unit", "CA_Weight", "CA_Dilution", "CA_Mfg.", "CA_volume", "before_Active_washing", "before_washing_buffer", "before_washing_times", "before_washing_protocolActive_formula", "Active_time", "coating_formula", "coating_time", "before_blocking_washing", "before_washing_buffer", "blocking_formula", "blocking_time", "after_Active_washing", "after_washing_buffer", "after_washing_times", "after_washing_protocol", "storage_buffer", "Ag_LOT", "Ag", "Ag_Conc.", "Ag_Unit", "Ag_Dilution", "Ag_Mfg.", "Ag_volume", "Ag_protocol", "DA_LOT", "DA", "DA_Conc.", "DA_Unit", "DA_Dilution", "DA_Mfg.", "DA_volume", "DA_protocol", "SBG_LOT", "SBG", "SBG_Conc.", "SBG_Unit", "SBG_Dilution", "SBG_Mfg.", "SBG_volume", "SBG_protocol", "Resuspension", "Resuspension_volume", "machine_LOT", "automatic.", "auto_washing", "date", "user", "platform", "Beads_LOT", "Beads", "Beads_Conc.", "Beads_Unit", "Beads_Dilution", "Beads_Mfg.", "Beads_volume", "CA_LOT", "CA", "CA_Conc.", "CA_Unit", "CA_Weight", "CA_Dilution", "CA_Mfg.", "CA_volume", "before_Active_washing", "before_washing_buffer", "before_washing_times", "before_washing_protocolActive_formula", "Active_time", "coating_formula", "coating_time", "before_blocking_washing", "before_washing_buffer", "blocking_formula", "blocking_time", "after_Active_washing", "after_washing_buffer", "after_washing_times", "after_washing_protocol", "storage_buffer", "Ag_LOT", "Ag", "Ag_Conc.", "Ag_Unit", "Ag_Dilution", "Ag_Mfg.", "Ag_volume", "Ag_protocol", "DA_LOT", "DA", "DA_Conc.", "DA_Unit", "DA_Dilution", "DA_Mfg.", "DA_volume", "DA_protocol", "SBG_LOT", "SBG", "SBG_Conc.", "SBG_Unit", "SBG_Dilution", "SBG_Mfg.", "SBG_volume", "SBG_protocol", "Resuspension", "Resuspension_volume", "machine_LOT", "automatic.", "auto_washing"]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ab4fff</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>["input_beads", "CA", "Beads_Dilution", "Resuspension_volume", "Beads", "storage_buffer", "DA_Unit", "Active_time", "DA_Conc.", "AEB", "blocking_formula", "after_washing_buffer", "Ag", "CA_Dilution", "after_Active_washing", "DA_LOT", "DA_Dilution", "SBG_Conc.", "DA_Mfg.", "blocking_time", "Resuspension", "before_Active_washing", "before_washing_protocolActive_formula", "Ag_protocol", "date", "Ag_Conc.", "recycle", "Ag_LOT", "SBG_Mfg.", "Ag_Mfg.", "after_washing_protocol", "platform", "positive_beads", "CA_Weight", "positive_ratio", "SBG_Dilution", "Beads_Conc.", "machine_LOT", "auto_washing", "Ag_Dilution", "total_beads", "SBG_LOT", "before_washing_buffer", "CA_Mfg.", "DA", "Beads_LOT", "CA_volume", "coating_time", "Beads_Mfg.", "DA_volume", "DA_protocol", "CA_LOT", "SBG", "Beads_volume", "after_washing_times", "SBG_protocol", "CA_Unit", "Ag_volume", "before_washing_times", "before_blocking_washing", "automatic.", "coating_formula", "CA_Conc.", "Ag_Unit", "SBG_volume", "user", "SBG_Unit", "Beads_Unit"]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>["platform", "user", "date", "bbb"]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>["platform", "date", "user", "bv", "av"]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>["user", "platform", "date"]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>["user", "platform", "date"]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>["user", "platform", "weq", "date"]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>["tt1"]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>V1.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>["tt2"]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>V1.0.1</t>
         </is>

--- a/i_experments/files/items.xlsx
+++ b/i_experments/files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>platforms</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>columns</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
@@ -458,148 +463,83 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>["input_beads", "CA", "Beads_Dilution", "Resuspension_volume", "Beads", "storage_buffer", "DA_Unit", "Active_time", "DA_Conc.", "AEB", "blocking_formula", "after_washing_buffer", "Ag", "CA_Dilution", "after_Active_washing", "DA_LOT", "DA_Dilution", "SBG_Conc.", "DA_Mfg.", "blocking_time", "Resuspension", "before_Active_washing", "before_washing_protocolActive_formula", "Ag_protocol", "date", "Ag_Conc.", "recycle", "Ag_LOT", "SBG_Mfg.", "Ag_Mfg.", "after_washing_protocol", "platform", "positive_beads", "CA_Weight", "positive_ratio", "SBG_Dilution", "Beads_Conc.", "machine_LOT", "auto_washing", "Ag_Dilution", "total_beads", "SBG_LOT", "before_washing_buffer", "CA_Mfg.", "DA", "Beads_LOT", "CA_volume", "coating_time", "Beads_Mfg.", "DA_volume", "DA_protocol", "CA_LOT", "SBG", "Beads_volume", "after_washing_times", "SBG_protocol", "CA_Unit", "Ag_volume", "before_washing_times", "before_blocking_washing", "automatic.", "coating_formula", "CA_Conc.", "Ag_Unit", "SBG_volume", "user", "SBG_Unit", "Beads_Unit"]</t>
+          <t>Digital_Elisa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>V1.0.1</t>
+          <t>["DA_Mfg.", "blocking_formula", "platform", "DA_volume", "SBG_volume", "SBG_Conc.", "coating_time", "positive_beads", "Ag_Mfg.", "SBG_Dilution", "CA", "blocking_temperature", "after_Active_washing", "coating_temperature", "SBG_protocol", "before_washing_times", "DA_Unit", "machine_LOT", "SBG_Unit", "user", "storage_buffer", "CA_LOT", "after_washing_times", "Beads_Unit", "after_washing_protocol", "Beads", "Beads_Dilution", "before_washing_buffer", "Active_temperaturecoating_formula", "Resuspension", "automatic.", "Beads_Mfg.", "Ag_volume", "input_beads", "recycle", "Ag_Dilution", "Resuspension_volume", "after_washing_buffer", "SBG_LOT", "CA_Dilution", "before_blocking_washing", "CA_volume", "Ag_Conc.", "DA_Conc.", "CA_Unit", "CA_Weight", "auto_washing", "CA_Conc.", "blocking_time", "DA_Dilution", "Ag_Unit", "Beads_Conc.", "Active_time", "DA_LOT", "DA_protocol", "Ag_protocol", "AEB", "date", "Ag_LOT", "total_beads", "Beads_LOT", "SBG", "before_Active_washing", "Beads_volume", "SBG_Mfg.", "CA_Mfg.", "before_washing_protocolActive_formula", "DA", "Ag", "positive_ratio"]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ab4fff</t>
+          <t>APOE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>["input_beads", "CA", "Beads_Dilution", "Resuspension_volume", "Beads", "storage_buffer", "DA_Unit", "Active_time", "DA_Conc.", "AEB", "blocking_formula", "after_washing_buffer", "Ag", "CA_Dilution", "after_Active_washing", "DA_LOT", "DA_Dilution", "SBG_Conc.", "DA_Mfg.", "blocking_time", "Resuspension", "before_Active_washing", "before_washing_protocolActive_formula", "Ag_protocol", "date", "Ag_Conc.", "recycle", "Ag_LOT", "SBG_Mfg.", "Ag_Mfg.", "after_washing_protocol", "platform", "positive_beads", "CA_Weight", "positive_ratio", "SBG_Dilution", "Beads_Conc.", "machine_LOT", "auto_washing", "Ag_Dilution", "total_beads", "SBG_LOT", "before_washing_buffer", "CA_Mfg.", "DA", "Beads_LOT", "CA_volume", "coating_time", "Beads_Mfg.", "DA_volume", "DA_protocol", "CA_LOT", "SBG", "Beads_volume", "after_washing_times", "SBG_protocol", "CA_Unit", "Ag_volume", "before_washing_times", "before_blocking_washing", "automatic.", "coating_formula", "CA_Conc.", "Ag_Unit", "SBG_volume", "user", "SBG_Unit", "Beads_Unit"]</t>
+          <t>qRT_PCR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>V1.0.1</t>
+          <t>["adadf", "dadsf", "dfasdf"]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>ab42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>["platform", "user", "date", "bbb"]</t>
+          <t>Digital_Elisa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>V1.0.1</t>
+          <t>["blocking_time", "machine_LOT", "DA_protocol", "CA_Dilution", "Ag_LOT", "Resuspension", "Beads_volume", "before_washing_times", "Ag", "SBG_protocol", "SBG_Mfg.", "Beads_Conc.", "date", "Active_temperaturecoating_formula", "user", "recycle", "positive_ratio", "DA_Mfg.", "AEB", "Beads_Unit", "DA_Unit", "Resuspension_volume", "before_washing_protocolActive_formula", "SBG_Conc.", "automatic.", "storage_buffer", "SBG_Unit", "after_washing_buffer", "Ag_Unit", "Ag_Conc.", "blocking_formula", "Ag_Dilution", "CA_Conc.", "CA_Weight", "DA_volume", "SBG", "SBG_volume", "CA_LOT", "DA_LOT", "before_Active_washing", "after_washing_protocol", "coating_time", "total_beads", "after_Active_washing", "DA", "DA_Dilution", "DA_Conc.", "before_blocking_washing", "after_washing_times", "SBG_LOT", "coating_temperature", "SBG_Dilution", "Beads", "Beads_Mfg.", "CA", "Ag_volume", "Ag_protocol", "auto_washing", "platform", "before_washing_buffer", "Beads_Dilution", "Beads_LOT", "CA_Mfg.", "Ag_Mfg.", "CA_Unit", "CA_volume", "positive_beads", "blocking_temperature", "Active_time", "input_beads"]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bb</t>
+          <t>p_Tau217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>["platform", "date", "user", "bv", "av"]</t>
+          <t>Digital_Elisa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>["user", "platform", "date"]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cc</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>["user", "platform", "date"]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>["user", "platform", "weq", "date"]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>["tt1"]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>["tt2"]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>V1.0.1</t>
+          <t>["blocking_time", "machine_LOT", "DA_protocol", "CA_Dilution", "Ag_LOT", "Resuspension", "Beads_volume", "before_washing_times", "Ag", "SBG_protocol", "SBG_Mfg.", "Beads_Conc.", "date", "Active_temperaturecoating_formula", "user", "recycle", "positive_ratio", "DA_Mfg.", "AEB", "Beads_Unit", "DA_Unit", "Resuspension_volume", "before_washing_protocolActive_formula", "SBG_Conc.", "automatic.", "storage_buffer", "SBG_Unit", "after_washing_buffer", "Ag_Unit", "Ag_Conc.", "blocking_formula", "Ag_Dilution", "CA_Conc.", "CA_Weight", "DA_volume", "SBG", "SBG_volume", "CA_LOT", "DA_LOT", "before_Active_washing", "after_washing_protocol", "coating_time", "total_beads", "after_Active_washing", "DA", "DA_Dilution", "DA_Conc.", "before_blocking_washing", "after_washing_times", "SBG_LOT", "coating_temperature", "SBG_Dilution", "Beads", "Beads_Mfg.", "CA", "Ag_volume", "Ag_protocol", "auto_washing", "platform", "before_washing_buffer", "Beads_Dilution", "Beads_LOT", "CA_Mfg.", "Ag_Mfg.", "CA_Unit", "CA_volume", "positive_beads", "blocking_temperature", "Active_time", "input_beads"]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
         </is>
       </c>
     </row>

--- a/i_experments/files/items.xlsx
+++ b/i_experments/files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,78 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>["DA_Mfg.", "blocking_formula", "platform", "DA_volume", "SBG_volume", "SBG_Conc.", "coating_time", "positive_beads", "Ag_Mfg.", "SBG_Dilution", "CA", "blocking_temperature", "after_Active_washing", "coating_temperature", "SBG_protocol", "before_washing_times", "DA_Unit", "machine_LOT", "SBG_Unit", "user", "storage_buffer", "CA_LOT", "after_washing_times", "Beads_Unit", "after_washing_protocol", "Beads", "Beads_Dilution", "before_washing_buffer", "Active_temperaturecoating_formula", "Resuspension", "automatic.", "Beads_Mfg.", "Ag_volume", "input_beads", "recycle", "Ag_Dilution", "Resuspension_volume", "after_washing_buffer", "SBG_LOT", "CA_Dilution", "before_blocking_washing", "CA_volume", "Ag_Conc.", "DA_Conc.", "CA_Unit", "CA_Weight", "auto_washing", "CA_Conc.", "blocking_time", "DA_Dilution", "Ag_Unit", "Beads_Conc.", "Active_time", "DA_LOT", "DA_protocol", "Ag_protocol", "AEB", "date", "Ag_LOT", "total_beads", "Beads_LOT", "SBG", "before_Active_washing", "Beads_volume", "SBG_Mfg.", "CA_Mfg.", "before_washing_protocolActive_formula", "DA", "Ag", "positive_ratio"]</t>
+          <t>["Ag_Mfg.", "CA", "total_beads", "platform", "Ag_Dilution", "date", "DA_protocol", "before_washing_times", "before_blocking_washing", "DA_Dilution", "Beads_LOT", "SBG_volume", "Ag_protocol", "CA_Weight", "storage_buffer", "CA_Unit", "blocking_time", "coating_temperature", "before_Active_washing", "SBG_LOT", "CA_Dilution", "SBG_protocol", "user", "Ag_volume", "positive_ratio", "Resuspension_volume", "Ag_Unit", "Beads_volume", "Beads_Unit", "CA_Mfg.", "SBG_Conc.", "Active_temperaturecoating_formula", "machine_LOT", "blocking_temperature", "before_washing_protocolActive_formula", "CA_LOT", "before_washing_buffer", "blocking_formula", "DA_Mfg.", "AEB", "DA", "after_washing_buffer", "DA_volume", "SBG", "Ag_LOT", "recycle", "after_washing_times", "input_beads", "automatic.", "DA_LOT", "Ag", "SBG_Dilution", "DA_Unit", "DA_Conc.", "auto_washing", "CA_Conc.", "coating_time", "SBG_Mfg.", "CA_volume", "Ag_Conc.", "Resuspension", "SBG_Unit", "Beads_Conc.", "after_Active_washing", "after_washing_protocol", "Active_time", "Beads_Mfg.", "Beads", "Beads_Dilution", "positive_beads"]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>V1.0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>APOE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>qRT_PCR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>["adadf", "dadsf", "dfasdf"]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>V1.0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ab42</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Digital_Elisa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>["blocking_time", "machine_LOT", "DA_protocol", "CA_Dilution", "Ag_LOT", "Resuspension", "Beads_volume", "before_washing_times", "Ag", "SBG_protocol", "SBG_Mfg.", "Beads_Conc.", "date", "Active_temperaturecoating_formula", "user", "recycle", "positive_ratio", "DA_Mfg.", "AEB", "Beads_Unit", "DA_Unit", "Resuspension_volume", "before_washing_protocolActive_formula", "SBG_Conc.", "automatic.", "storage_buffer", "SBG_Unit", "after_washing_buffer", "Ag_Unit", "Ag_Conc.", "blocking_formula", "Ag_Dilution", "CA_Conc.", "CA_Weight", "DA_volume", "SBG", "SBG_volume", "CA_LOT", "DA_LOT", "before_Active_washing", "after_washing_protocol", "coating_time", "total_beads", "after_Active_washing", "DA", "DA_Dilution", "DA_Conc.", "before_blocking_washing", "after_washing_times", "SBG_LOT", "coating_temperature", "SBG_Dilution", "Beads", "Beads_Mfg.", "CA", "Ag_volume", "Ag_protocol", "auto_washing", "platform", "before_washing_buffer", "Beads_Dilution", "Beads_LOT", "CA_Mfg.", "Ag_Mfg.", "CA_Unit", "CA_volume", "positive_beads", "blocking_temperature", "Active_time", "input_beads"]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>V1.0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>p_Tau217</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Digital_Elisa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>["blocking_time", "machine_LOT", "DA_protocol", "CA_Dilution", "Ag_LOT", "Resuspension", "Beads_volume", "before_washing_times", "Ag", "SBG_protocol", "SBG_Mfg.", "Beads_Conc.", "date", "Active_temperaturecoating_formula", "user", "recycle", "positive_ratio", "DA_Mfg.", "AEB", "Beads_Unit", "DA_Unit", "Resuspension_volume", "before_washing_protocolActive_formula", "SBG_Conc.", "automatic.", "storage_buffer", "SBG_Unit", "after_washing_buffer", "Ag_Unit", "Ag_Conc.", "blocking_formula", "Ag_Dilution", "CA_Conc.", "CA_Weight", "DA_volume", "SBG", "SBG_volume", "CA_LOT", "DA_LOT", "before_Active_washing", "after_washing_protocol", "coating_time", "total_beads", "after_Active_washing", "DA", "DA_Dilution", "DA_Conc.", "before_blocking_washing", "after_washing_times", "SBG_LOT", "coating_temperature", "SBG_Dilution", "Beads", "Beads_Mfg.", "CA", "Ag_volume", "Ag_protocol", "auto_washing", "platform", "before_washing_buffer", "Beads_Dilution", "Beads_LOT", "CA_Mfg.", "Ag_Mfg.", "CA_Unit", "CA_volume", "positive_beads", "blocking_temperature", "Active_time", "input_beads"]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>V1.0.2</t>
+          <t>Items V1.0.3</t>
         </is>
       </c>
     </row>
